--- a/data/Volatile fatty acids data/VFA_Fp_Cecal.xlsx
+++ b/data/Volatile fatty acids data/VFA_Fp_Cecal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Write ups/Paper/Data availability/Volatile fatty acids data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Writing/Paper/Data availability/Volatile fatty acids data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{5E13157E-5C7E-4BE5-B8A2-3AF5FFC59A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44231F1B-8587-904B-8A32-541833EBA020}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{5E13157E-5C7E-4BE5-B8A2-3AF5FFC59A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F252C84-AFF7-334F-AC39-D91A474C2A84}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A440BE12-6817-41E2-ADAE-658F40708A10}"/>
   </bookViews>
@@ -191,13 +191,13 @@
     <t>Key</t>
   </si>
   <si>
-    <t>WT</t>
-  </si>
-  <si>
-    <t>ASO-Cntrl</t>
-  </si>
-  <si>
-    <t>ASO-Fp</t>
+    <t>Wildtype</t>
+  </si>
+  <si>
+    <t>Thy1-ASO-Control</t>
+  </si>
+  <si>
+    <t>Thy1-ASO-F. prausnitzii</t>
   </si>
 </sst>
 </file>
@@ -270,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -287,7 +287,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B26C5D8-0368-486C-BDD1-1C72BED9A755}">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -956,7 +955,7 @@
       <c r="K6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -997,7 +996,7 @@
         <f>Table8[[#This Row],[mM]]/Table8[[#This Row],[sCOD (mg/L, accouting for dilution)]]*1000</f>
         <v>1.6698803290701167</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="N7" t="s">
@@ -1041,7 +1040,7 @@
         <f>Table8[[#This Row],[mM]]/Table8[[#This Row],[sCOD (mg/L, accouting for dilution)]]*1000</f>
         <v>0.35685790320170752</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -1086,7 +1085,7 @@
         <f>Table8[[#This Row],[mM]]/Table8[[#This Row],[sCOD (mg/L, accouting for dilution)]]*1000</f>
         <v>1.4536038822262303</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N9" t="s">
